--- a/28/28Maps & Spatial Plans17.xlsx
+++ b/28/28Maps & Spatial Plans17.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hans_black/Documents/GitHub/17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaozhenjie\Desktop\PaperAR\PaperAR\17\28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F923546-F014-904E-985C-79C411A38CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$60</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$61</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$70</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$10</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$4</definedName>
     <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$A$64</definedName>
     <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$A$65</definedName>
     <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$A$66</definedName>
@@ -29,7 +28,7 @@
     <definedName name="_xlchart.v1.107" hidden="1">Sheet1!$A$71</definedName>
     <definedName name="_xlchart.v1.108" hidden="1">Sheet1!$A$72</definedName>
     <definedName name="_xlchart.v1.109" hidden="1">Sheet1!$A$73</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$71</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$5</definedName>
     <definedName name="_xlchart.v1.110" hidden="1">Sheet1!$A$74</definedName>
     <definedName name="_xlchart.v1.111" hidden="1">Sheet1!$A$75</definedName>
     <definedName name="_xlchart.v1.112" hidden="1">Sheet1!$B$60:$K$60</definedName>
@@ -40,7 +39,7 @@
     <definedName name="_xlchart.v1.117" hidden="1">Sheet1!$B$65:$K$65</definedName>
     <definedName name="_xlchart.v1.118" hidden="1">Sheet1!$B$66:$K$66</definedName>
     <definedName name="_xlchart.v1.119" hidden="1">Sheet1!$B$67:$K$67</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$72</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$6</definedName>
     <definedName name="_xlchart.v1.120" hidden="1">Sheet1!$B$68:$K$68</definedName>
     <definedName name="_xlchart.v1.121" hidden="1">Sheet1!$B$69:$K$69</definedName>
     <definedName name="_xlchart.v1.122" hidden="1">Sheet1!$B$70:$K$70</definedName>
@@ -49,27 +48,27 @@
     <definedName name="_xlchart.v1.125" hidden="1">Sheet1!$B$73:$K$73</definedName>
     <definedName name="_xlchart.v1.126" hidden="1">Sheet1!$B$74:$K$74</definedName>
     <definedName name="_xlchart.v1.127" hidden="1">Sheet1!$B$75:$K$75</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$73</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$74</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$75</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$60:$K$60</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$61:$K$61</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$62:$K$62</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$63:$K$63</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$62</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$64:$K$64</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$65:$K$65</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$66:$K$66</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$67:$K$67</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$68:$K$68</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$69:$K$69</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$70:$K$70</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$71:$K$71</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$72:$K$72</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$73:$K$73</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$63</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$74:$K$74</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$75:$K$75</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$14:$K$14</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$15:$K$15</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$16:$K$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$1:$K$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$2:$K$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$3:$K$3</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$5:$K$5</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$7:$K$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$8:$K$8</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$9:$K$9</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$60</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$61</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$62</definedName>
@@ -78,7 +77,7 @@
     <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$65</definedName>
     <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$66</definedName>
     <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$67</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$64</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$13</definedName>
     <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$68</definedName>
     <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$69</definedName>
     <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$70</definedName>
@@ -89,7 +88,7 @@
     <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$A$75</definedName>
     <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$60:$K$60</definedName>
     <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$B$61:$K$61</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$65</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$14</definedName>
     <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$B$62:$K$62</definedName>
     <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$63:$K$63</definedName>
     <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$64:$K$64</definedName>
@@ -100,46 +99,46 @@
     <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$69:$K$69</definedName>
     <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$B$70:$K$70</definedName>
     <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$B$71:$K$71</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$66</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$15</definedName>
     <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$72:$K$72</definedName>
     <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$73:$K$73</definedName>
     <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$74:$K$74</definedName>
     <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$75:$K$75</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$A$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$67</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$A$15</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$A$16</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$68</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$B$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$B$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$B$12:$K$12</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$B$13:$K$13</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$B$14:$K$14</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$B$15:$K$15</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$B$16:$K$16</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$B$1:$K$1</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$B$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$B$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$69</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$B$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$B$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$B$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$B$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$B$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$A$60</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$A$61</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$A$62</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$A$63</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$A$64</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$A$65</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$16</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$A$66</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$A$67</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$A$68</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$A$69</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$A$70</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$A$71</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$A$72</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$A$73</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$A$74</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$A$75</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$B$60:$K$60</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$B$61:$K$61</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$B$62:$K$62</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$B$63:$K$63</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$B$64:$K$64</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$B$65:$K$65</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$B$66:$K$66</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$B$67:$K$67</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$B$68:$K$68</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$B$69:$K$69</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$B$70:$K$70</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$B$71:$K$71</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$B$72:$K$72</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$B$73:$K$73</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$B$74:$K$74</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$B$75:$K$75</definedName>
     <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$A$60</definedName>
     <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$A$61</definedName>
     <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$A$62</definedName>
@@ -253,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -403,7 +402,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -980,7 +979,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1557,7 +1556,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2303,82 +2302,82 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.93</cx:f>
+        <cx:f dir="row">_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.89</cx:f>
+        <cx:f dir="row">_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.87</cx:f>
+        <cx:f dir="row">_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.88</cx:f>
+        <cx:f dir="row">_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.90</cx:f>
+        <cx:f dir="row">_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.94</cx:f>
+        <cx:f dir="row">_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.83</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.95</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.80</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.81</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.82</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.91</cx:f>
+        <cx:f dir="row">_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.92</cx:f>
+        <cx:f dir="row">_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.84</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.85</cx:f>
+        <cx:f dir="row">_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.86</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2431,7 +2430,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CF7E59A5-907E-4927-9DDC-589E2651C7DE}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Rng.Inp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2454,7 +2453,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E383305E-078B-477F-A7EE-D11BE2965317}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Orgniz.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2484,7 +2483,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8158723B-6DC0-4C0F-857A-EFA8B9DEBC8B}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Explor.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2512,7 +2511,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7E14A7AE-661E-427B-BDCA-6B93474DD4F7}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Find.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2535,7 +2534,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EEC2F5CB-2006-4A87-8339-2B6CE2F2D73A}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Collab.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2566,7 +2565,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{88EEE5EE-396D-4B65-A782-ECEF3C8DC90F}" formatIdx="5">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Manipu.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2592,7 +2591,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{123B40C6-5AD6-4B61-9B10-8EDFB03A9451}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Personal.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2615,7 +2614,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{516AFDE7-9C05-4EAA-9EAF-5A22F23B573B}" formatIdx="7">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Feed.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2638,7 +2637,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1532E49E-18AD-457E-8D70-EB28D260E706}" formatIdx="8">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Privacy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2661,7 +2660,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9EFEEB4D-8CAF-42A0-B49F-4DE332CD916F}" formatIdx="9">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Security</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2684,7 +2683,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{32D06C0F-7355-485F-9EC2-7DD755031230}" formatIdx="10">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Access</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2707,7 +2706,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{24261D9E-10D3-4F28-A2A1-63F225F6092A}" formatIdx="11">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>Vol.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2730,7 +2729,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF1703EF-BCA4-4B5E-97EE-D3A185E68B1C}" formatIdx="13">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Var.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2753,7 +2752,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E5DCEC07-FC56-44F6-A584-7C04061B7B16}" formatIdx="14">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Spatial</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2778,7 +2777,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{72203A9F-56A7-4399-9CA8-FCBE496533BD}" formatIdx="15">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Environ</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2803,7 +2802,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{327C844F-6510-4A03-A813-02F6AACB717C}" formatIdx="16">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Temp</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2908,82 +2907,82 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.16</cx:f>
+        <cx:f dir="row">_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.21</cx:f>
+        <cx:f dir="row">_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.23</cx:f>
+        <cx:f dir="row">_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.24</cx:f>
+        <cx:f dir="row">_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.25</cx:f>
+        <cx:f dir="row">_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.26</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.27</cx:f>
+        <cx:f dir="row">_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.28</cx:f>
+        <cx:f dir="row">_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="13">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.29</cx:f>
+        <cx:f dir="row">_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="14">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.30</cx:f>
+        <cx:f dir="row">_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="15">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.63</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3018,7 +3017,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{53AF1AFE-9361-443B-B2A1-293F5472AC8B}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>Orgniz.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3041,7 +3040,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9BFF5935-AF25-4022-B1A8-AD467046D3A3}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>Explor.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3064,7 +3063,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A94277D-A3CB-4D9D-B07F-A47C97F3DAE0}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Findbl.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3087,7 +3086,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{82BD3765-E111-4F84-BEDF-F1AF172168FD}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.35</cx:f>
               <cx:v>Collab.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3110,7 +3109,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C2C2DE8-C363-456E-88BE-A96B3616C590}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Inf. Vol.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3136,7 +3135,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E28DFC4B-20AC-44E4-BBEA-3E76B2B57439}" formatIdx="5">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.37</cx:f>
               <cx:v>Inf. Var.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3162,7 +3161,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3B6075D6-F49D-4EBA-8E76-E83DEF73F4A9}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>Rng.Inp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3185,7 +3184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{577EBBD1-7058-4D25-8018-3AB42A139E52}" formatIdx="7">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>Phy. Man.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3208,7 +3207,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{84C14248-0E92-4E73-84FC-5EF69353821F}" formatIdx="9">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>Feedbk.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3231,7 +3230,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{26B3A1F3-874E-49E3-A76D-89EA2E8F9492}" formatIdx="10">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.41</cx:f>
               <cx:v>Privcy.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3257,7 +3256,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE89E2C9-0BD5-45D7-95E4-9107A8AB8BA7}" formatIdx="11">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>Secrty.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3283,7 +3282,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A0074FFB-E6C6-4DCC-A3D6-C94943A080AE}" formatIdx="12">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.43</cx:f>
               <cx:v>Access.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3309,7 +3308,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F02EE242-6D22-49F3-89B8-E177FC79F351}" formatIdx="13">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>Prsnal.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3335,7 +3334,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3EFDF05C-A303-4883-A316-AAFEBB52CC6B}" formatIdx="14">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>Sptial.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3360,7 +3359,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0848BC20-A60E-475F-8309-5C8A6526D11F}" formatIdx="15">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>Amb.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3385,7 +3384,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{46A85AD5-E642-42BF-A6E5-9531AFCB39DF}" formatIdx="16">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>Tempral.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3463,6 +3462,565 @@
 </file>
 
 <file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.88</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.89</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.90</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="11">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.91</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="13">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.93</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="14">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="15">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.95</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v/>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{53AF1AFE-9361-443B-B2A1-293F5472AC8B}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:v>Orgniz.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9BFF5935-AF25-4022-B1A8-AD467046D3A3}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:v>Explor.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5A94277D-A3CB-4D9D-B07F-A47C97F3DAE0}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:v>Findbl.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{82BD3765-E111-4F84-BEDF-F1AF172168FD}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:v>Collab.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6C2C2DE8-C363-456E-88BE-A96B3616C590}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:v>Inf. Vol.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E28DFC4B-20AC-44E4-BBEA-3E76B2B57439}" formatIdx="5">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>Inf. Var.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3B6075D6-F49D-4EBA-8E76-E83DEF73F4A9}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:v>Rng.Inp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{577EBBD1-7058-4D25-8018-3AB42A139E52}" formatIdx="7">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>Phy. Man.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{84C14248-0E92-4E73-84FC-5EF69353821F}" formatIdx="9">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:v>Feedbk.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{26B3A1F3-874E-49E3-A76D-89EA2E8F9492}" formatIdx="10">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>Privcy.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AE89E2C9-0BD5-45D7-95E4-9107A8AB8BA7}" formatIdx="11">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:v>Secrty.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="10"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A0074FFB-E6C6-4DCC-A3D6-C94943A080AE}" formatIdx="12">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>Access.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="11"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F02EE242-6D22-49F3-89B8-E177FC79F351}" formatIdx="13">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:v>Prsnal.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="12"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EFDF05C-A303-4883-A316-AAFEBB52CC6B}" formatIdx="14">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:v>Sptial.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="13"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0848BC20-A60E-475F-8309-5C8A6526D11F}" formatIdx="15">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>Amb.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="14"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{46A85AD5-E642-42BF-A6E5-9531AFCB39DF}" formatIdx="16">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:v>Tempral.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataId val="15"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.370000005"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines>
+          <cx:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:majorGridlines>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="l" align="ctr" overlay="0">
+      <cx:spPr>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </cx:spPr>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -3873,12 +4431,14 @@
             </cx:txData>
           </cx:tx>
           <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="A9D18E"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3924,11 +4484,14 @@
             </cx:txData>
           </cx:tx>
           <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="2E75B6"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3945,570 +4508,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.111</cx:f>
-              <cx:v>Tempral.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="15"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.370000005"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines>
-          <cx:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-        </cx:majorGridlines>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="l" align="ctr" overlay="0">
-      <cx:spPr>
-        <a:effectLst>
-          <a:glow>
-            <a:schemeClr val="accent1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </cx:spPr>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.48</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.50</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.52</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.54</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.55</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.56</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.58</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.60</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="13">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="14">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.62</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="15">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v/>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:plotSurface>
-          <cx:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </cx:spPr>
-        </cx:plotSurface>
-        <cx:series layoutId="boxWhisker" uniqueId="{53AF1AFE-9361-443B-B2A1-293F5472AC8B}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>Orgniz.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{9BFF5935-AF25-4022-B1A8-AD467046D3A3}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
-              <cx:v>Explor.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5A94277D-A3CB-4D9D-B07F-A47C97F3DAE0}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>Findbl.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{82BD3765-E111-4F84-BEDF-F1AF172168FD}" formatIdx="3">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
-              <cx:v>Collab.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6C2C2DE8-C363-456E-88BE-A96B3616C590}" formatIdx="4">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Inf. Vol.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E28DFC4B-20AC-44E4-BBEA-3E76B2B57439}" formatIdx="5">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.37</cx:f>
-              <cx:v>Inf. Var.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3B6075D6-F49D-4EBA-8E76-E83DEF73F4A9}" formatIdx="6">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Rng.Inp.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{577EBBD1-7058-4D25-8018-3AB42A139E52}" formatIdx="7">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
-              <cx:v>Phy. Man.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{84C14248-0E92-4E73-84FC-5EF69353821F}" formatIdx="9">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Feedbk.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="8"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{26B3A1F3-874E-49E3-A76D-89EA2E8F9492}" formatIdx="10">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
-              <cx:v>Privcy.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="9"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{AE89E2C9-0BD5-45D7-95E4-9107A8AB8BA7}" formatIdx="11">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>Secrty.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="10"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{A0074FFB-E6C6-4DCC-A3D6-C94943A080AE}" formatIdx="12">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
-              <cx:v>Access.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="11"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F02EE242-6D22-49F3-89B8-E177FC79F351}" formatIdx="13">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>Prsnal.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="wdUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="bg1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:srgbClr val="A9D18E"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="12"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3EFDF05C-A303-4883-A316-AAFEBB52CC6B}" formatIdx="14">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
-              <cx:v>Sptial.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="13"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0848BC20-A60E-475F-8309-5C8A6526D11F}" formatIdx="15">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Amb.</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:pattFill prst="wdUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="bg1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:srgbClr val="2E75B6"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="14"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{46A85AD5-E642-42BF-A6E5-9531AFCB39DF}" formatIdx="16">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>Tempral.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8942,10 +8941,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5654040" y="6835140"/>
-              <a:ext cx="3388360" cy="53340"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -8963,8 +8958,8 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -9020,10 +9015,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12400642" y="4726670"/>
-              <a:ext cx="16698687" cy="5639707"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -9041,8 +9032,8 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -9648,10 +9639,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4238173" y="18315216"/>
-              <a:ext cx="16926379" cy="6132285"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -9669,8 +9656,8 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -10824,10 +10811,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4292600" y="25744715"/>
-              <a:ext cx="16926379" cy="6132286"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -10845,8 +10828,8 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -12000,10 +11983,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4292600" y="32684359"/>
-              <a:ext cx="16926379" cy="6132286"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -12021,8 +12000,8 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -14456,20 +14435,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF200" sqref="AF200"/>
+    <sheetView tabSelected="1" topLeftCell="E169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG191" sqref="AG191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -15222,12 +15201,12 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="16" thickBot="1">
+    <row r="59" spans="1:29" ht="15.75" thickBot="1">
       <c r="G59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="25" thickBot="1">
+    <row r="60" spans="1:29" ht="24" thickBot="1">
       <c r="A60" s="8" t="s">
         <v>14</v>
       </c>
@@ -15271,7 +15250,7 @@
         <v>7.0190606748136097E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="16" thickBot="1">
+    <row r="61" spans="1:29" ht="15.75" thickBot="1">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -15318,7 +15297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="16" thickBot="1">
+    <row r="62" spans="1:29" ht="15.75" thickBot="1">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -15362,7 +15341,7 @@
         <v>6.5585326313522305E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="16" thickBot="1">
+    <row r="63" spans="1:29" ht="15.75" thickBot="1">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -15406,7 +15385,7 @@
         <v>0.13156854683100599</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="16" thickBot="1">
+    <row r="64" spans="1:29" ht="15.75" thickBot="1">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -15450,7 +15429,7 @@
         <v>8.2442216630990578E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" thickBot="1">
+    <row r="65" spans="1:14" ht="15.75" thickBot="1">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -15494,7 +15473,7 @@
         <v>0.12871698246642244</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16" thickBot="1">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -15538,7 +15517,7 @@
         <v>0.104134820166406</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" thickBot="1">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -15582,7 +15561,7 @@
         <v>1.1465148891992301E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" thickBot="1">
+    <row r="68" spans="1:14" ht="15.75" thickBot="1">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -15626,7 +15605,7 @@
         <v>6.2403201910946698E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" thickBot="1">
+    <row r="69" spans="1:14" ht="15.75" thickBot="1">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -15670,7 +15649,7 @@
         <v>7.0983713740589302E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -15714,7 +15693,7 @@
         <v>2.9516780172604964E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" thickBot="1">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -15758,7 +15737,7 @@
         <v>0.23606609104636883</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" thickBot="1">
+    <row r="72" spans="1:14" ht="15.75" thickBot="1">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -15802,7 +15781,7 @@
         <v>0.105764373635611</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1">
+    <row r="73" spans="1:14" ht="15.75" thickBot="1">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -15846,7 +15825,7 @@
         <v>0.14234638817724199</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" thickBot="1">
+    <row r="74" spans="1:14" ht="15.75" thickBot="1">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -15890,7 +15869,7 @@
         <v>0.196598037395953</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1">
       <c r="A75" t="s">
         <v>19</v>
       </c>
